--- a/myapp/files/9_MethodComparePercent/Scenario 284.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 284.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>3281</v>
+        <v>14276</v>
       </c>
       <c r="F2" t="n">
-        <v>5.03151405480838</v>
+        <v>2.79686851034818</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -593,10 +593,10 @@
         <v>1.42857142857143</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>4.44444444444444</v>
+        <v>1.52091254752852</v>
       </c>
       <c r="K2" t="n">
         <v>3</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>3339</v>
+        <v>21049</v>
       </c>
       <c r="F3" t="n">
-        <v>5.12045883236977</v>
+        <v>4.12379414922379</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>6.66666666666667</v>
+        <v>3.42205323193916</v>
       </c>
       <c r="K3" t="n">
         <v>3</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>3739</v>
+        <v>22683</v>
       </c>
       <c r="F4" t="n">
-        <v>5.73387109141376</v>
+        <v>4.44391765342027</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
@@ -669,10 +669,10 @@
         <v>4.28571428571429</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
-        <v>6.66666666666667</v>
+        <v>4.18250950570342</v>
       </c>
       <c r="K4" t="n">
         <v>4</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>5303</v>
+        <v>25017</v>
       </c>
       <c r="F5" t="n">
-        <v>8.13231302427579</v>
+        <v>4.90118096969602</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -707,10 +707,10 @@
         <v>2.85714285714286</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J5" t="n">
-        <v>8.88888888888889</v>
+        <v>5.32319391634981</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>6027</v>
+        <v>20890</v>
       </c>
       <c r="F6" t="n">
-        <v>9.24258921314543</v>
+        <v>4.09264382048007</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>6.66666666666667</v>
+        <v>3.80228136882129</v>
       </c>
       <c r="K6" t="n">
         <v>4</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1602</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.313854255644283</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.14068441064639</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>18116</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3.54917833661163</v>
       </c>
       <c r="G8" t="n">
         <v>4</v>
@@ -821,10 +821,10 @@
         <v>5.71428571428571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.94296577946768</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>25873</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>5.06888336846725</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -859,10 +859,10 @@
         <v>1.42857142857143</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>6.4638783269962</v>
       </c>
       <c r="K9" t="n">
         <v>4</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>1863</v>
+        <v>25538</v>
       </c>
       <c r="F10" t="n">
-        <v>2.85696759649742</v>
+        <v>5.00325217268645</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -897,10 +897,10 @@
         <v>4.28571428571429</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J10" t="n">
-        <v>4.44444444444444</v>
+        <v>7.22433460076046</v>
       </c>
       <c r="K10" t="n">
         <v>3</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>5544</v>
+        <v>25732</v>
       </c>
       <c r="F11" t="n">
-        <v>8.5018939103498</v>
+        <v>5.04125949203414</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
@@ -935,16 +935,16 @@
         <v>2.85714285714286</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J11" t="n">
-        <v>4.44444444444444</v>
+        <v>4.94296577946768</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>7.14285714285714</v>
+        <v>8.57142857142857</v>
       </c>
     </row>
     <row r="12">
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.0240974241225011</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.760456273764259</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>561</v>
+        <v>19180</v>
       </c>
       <c r="F13" t="n">
-        <v>0.860310693309206</v>
+        <v>3.75763085097213</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1011,10 +1011,10 @@
         <v>1.42857142857143</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>2.22222222222222</v>
+        <v>4.56273764258555</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>2610</v>
+        <v>41964</v>
       </c>
       <c r="F14" t="n">
-        <v>4.00251499026208</v>
+        <v>8.22133582013526</v>
       </c>
       <c r="G14" t="n">
         <v>7</v>
@@ -1049,10 +1049,10 @@
         <v>10</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J14" t="n">
-        <v>6.66666666666667</v>
+        <v>7.60456273764258</v>
       </c>
       <c r="K14" t="n">
         <v>9</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>5394</v>
+        <v>32719</v>
       </c>
       <c r="F15" t="n">
-        <v>8.2718643132083</v>
+        <v>6.41011073060255</v>
       </c>
       <c r="G15" t="n">
         <v>15</v>
@@ -1087,10 +1087,10 @@
         <v>21.4285714285714</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="J15" t="n">
-        <v>8.88888888888889</v>
+        <v>7.98479087452471</v>
       </c>
       <c r="K15" t="n">
         <v>7</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>169</v>
+        <v>17215</v>
       </c>
       <c r="F16" t="n">
-        <v>0.259166679446089</v>
+        <v>3.37265980706388</v>
       </c>
       <c r="G16" t="n">
         <v>5</v>
@@ -1125,16 +1125,16 @@
         <v>7.14285714285714</v>
       </c>
       <c r="I16" t="n">
+        <v>13</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.94296577946768</v>
+      </c>
+      <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
-        <v>2.22222222222222</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2</v>
-      </c>
       <c r="L16" t="n">
-        <v>2.85714285714286</v>
+        <v>1.42857142857143</v>
       </c>
     </row>
     <row r="17">
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2537</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.497033861778743</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.14068441064639</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>1045</v>
+        <v>16983</v>
       </c>
       <c r="F18" t="n">
-        <v>1.60253952675244</v>
+        <v>3.32720775506046</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>1.42857142857143</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>2.22222222222222</v>
+        <v>2.28136882129278</v>
       </c>
       <c r="K18" t="n">
         <v>2</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>741</v>
+        <v>21236</v>
       </c>
       <c r="F19" t="n">
-        <v>1.136346209879</v>
+        <v>4.16043007045068</v>
       </c>
       <c r="G19" t="n">
         <v>8</v>
@@ -1239,10 +1239,10 @@
         <v>11.4285714285714</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J19" t="n">
-        <v>2.22222222222222</v>
+        <v>4.56273764258555</v>
       </c>
       <c r="K19" t="n">
         <v>2</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>6109</v>
+        <v>38164</v>
       </c>
       <c r="F20" t="n">
-        <v>9.36833872624944</v>
+        <v>7.47686255456205</v>
       </c>
       <c r="G20" t="n">
         <v>8</v>
@@ -1277,10 +1277,10 @@
         <v>11.4285714285714</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J20" t="n">
-        <v>8.88888888888889</v>
+        <v>6.84410646387833</v>
       </c>
       <c r="K20" t="n">
         <v>7</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>4325</v>
+        <v>31897</v>
       </c>
       <c r="F21" t="n">
-        <v>6.63252005091322</v>
+        <v>6.24906940841803</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1315,10 +1315,10 @@
         <v>2.85714285714286</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J21" t="n">
-        <v>4.44444444444444</v>
+        <v>4.56273764258555</v>
       </c>
       <c r="K21" t="n">
         <v>3</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>1632</v>
+        <v>3968</v>
       </c>
       <c r="F22" t="n">
-        <v>2.50272201689951</v>
+        <v>0.777386820472231</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.22222222222222</v>
+        <v>1.14068441064639</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>2134</v>
+        <v>12502</v>
       </c>
       <c r="F23" t="n">
-        <v>3.27255440199972</v>
+        <v>2.44931704373585</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>4.44444444444444</v>
+        <v>1.52091254752852</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>4756</v>
+        <v>22974</v>
       </c>
       <c r="F24" t="n">
-        <v>7.29347176003312</v>
+        <v>4.50092863244179</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -1429,10 +1429,10 @@
         <v>4.28571428571429</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J24" t="n">
-        <v>4.44444444444444</v>
+        <v>3.04182509505703</v>
       </c>
       <c r="K24" t="n">
         <v>4</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>3017</v>
+        <v>27791</v>
       </c>
       <c r="F25" t="n">
-        <v>4.62666196383935</v>
+        <v>5.44464645356446</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -1467,10 +1467,10 @@
         <v>4.28571428571429</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J25" t="n">
-        <v>4.44444444444444</v>
+        <v>3.42205323193916</v>
       </c>
       <c r="K25" t="n">
         <v>3</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>3620</v>
+        <v>20399</v>
       </c>
       <c r="F26" t="n">
-        <v>5.55138094434817</v>
+        <v>3.99645003800732</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1505,10 +1505,10 @@
         <v>1.42857142857143</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
-        <v>4.44444444444444</v>
+        <v>2.6615969581749</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
